--- a/技能間互動.xlsx
+++ b/技能間互動.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Hsu\Documents\GitHub\CS1.6-LeaderMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E52C5E-AF41-4DA2-8287-50CAFFA3F7DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302F8FA-0F8B-4102-A361-23EAB8D50175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DD489BB-1039-421B-BD99-6627FF7F1155}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>指揮官</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教父技能作用時無法絕唱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教父技能作用下無法隱身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +150,18 @@
   </si>
   <si>
     <t>SWAT使用技能時為軍醫補充治療飛鏢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAT使用技能時為爆破填充霰彈槍子彈(爆破子彈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAT使用技能時為神射填充狙擊槍子彈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教父技能作用時無法絕唱，若在絕唱中則中止之。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,20 +184,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -237,20 +231,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,15 +555,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8836E57-BA32-4CBF-B3FC-194A6D9CC60F}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,23 +580,29 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,12 +616,18 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2"/>
@@ -638,16 +639,22 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -657,18 +664,24 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2"/>
@@ -678,21 +691,27 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="2"/>
@@ -701,24 +720,30 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2"/>
@@ -726,126 +751,441 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="K11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/技能間互動.xlsx
+++ b/技能間互動.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Hsu\Documents\GitHub\CS1.6-LeaderMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302F8FA-0F8B-4102-A361-23EAB8D50175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6060B4-2BEC-47C1-9B41-2D9A2801ECE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DD489BB-1039-421B-BD99-6627FF7F1155}"/>
+    <workbookView xWindow="12885" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4DD489BB-1039-421B-BD99-6627FF7F1155}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>治療彈可以撤銷冰雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神射使用技能時，爆頭強制擊殺暴徒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>治療彈撤銷絕唱但不致其於死地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治療彈範圍內毒氣與電擊無效；治療飛鏢治癒毒氣、電擊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火焰中止治療彈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教父技能作用下無法隱身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +150,18 @@
   </si>
   <si>
     <t>教父技能作用時無法絕唱，若在絕唱中則中止之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰中止治療煙霧彈，治療飛鏢可以解除燃燒狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治療煙霧(治療飛鏢同)彈撤銷絕唱但不致其於死地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治療煙霧(治療飛鏢同)彈可以撤銷冰雷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +558,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -679,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -706,13 +706,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -772,13 +772,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -805,10 +805,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -840,19 +840,19 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -877,22 +877,22 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
